--- a/Data/GazetteerSqKm/MWIAdmin1GazJn.xlsx
+++ b/Data/GazetteerSqKm/MWIAdmin1GazJn.xlsx
@@ -106,80 +106,90 @@
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>OBJECTID__</t>
+          <t>ADM1_EN</t>
         </is>
       </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
-          <t>Shape__</t>
+          <t>ADM1_PCODE</t>
         </is>
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
-          <t>admin1Name_en</t>
+          <t>ADM0_EN</t>
         </is>
       </c>
       <c r="E1" s="1" t="inlineStr">
         <is>
-          <t>admin1Pcode</t>
+          <t>ADM0_PCODE</t>
         </is>
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
-          <t>admin1RefName</t>
+          <t>date</t>
         </is>
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>admin1AltName1_en</t>
+          <t>validOn</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
         <is>
-          <t>admin1AltName2_en</t>
+          <t>validTo</t>
         </is>
       </c>
       <c r="I1" s="1" t="inlineStr">
         <is>
-          <t>admin0Name_en</t>
+          <t>OBJECTID</t>
         </is>
       </c>
       <c r="J1" s="1" t="inlineStr">
         <is>
-          <t>admin0Pcode</t>
+          <t>ADM1_EN_1</t>
         </is>
       </c>
       <c r="K1" s="1" t="inlineStr">
         <is>
-          <t>date</t>
+          <t>ADM1_PCODE_1</t>
         </is>
       </c>
       <c r="L1" s="1" t="inlineStr">
         <is>
-          <t>validOn</t>
+          <t>ADM0_EN_1</t>
         </is>
       </c>
       <c r="M1" s="1" t="inlineStr">
         <is>
-          <t>validTo</t>
+          <t>ADM0_PCODE_1</t>
         </is>
       </c>
       <c r="N1" s="1" t="inlineStr">
         <is>
+          <t>date_1</t>
+        </is>
+      </c>
+      <c r="O1" s="1" t="inlineStr">
+        <is>
+          <t>validOn_1</t>
+        </is>
+      </c>
+      <c r="P1" s="1" t="inlineStr">
+        <is>
+          <t>validTo_1</t>
+        </is>
+      </c>
+      <c r="Q1" s="1" t="inlineStr">
+        <is>
           <t>Shape_Length</t>
         </is>
       </c>
-      <c r="O1" s="1" t="inlineStr">
+      <c r="R1" s="1" t="inlineStr">
         <is>
           <t>Shape_Area</t>
         </is>
       </c>
-      <c r="P1" s="1" t="inlineStr">
-        <is>
-          <t>OBJECTID</t>
-        </is>
-      </c>
-      <c r="Q1" s="1" t="inlineStr">
+      <c r="S1" s="1" t="inlineStr">
         <is>
           <t>Area_SqKm</t>
         </is>
@@ -189,213 +199,222 @@
       <c r="A2" t="n">
         <v>1</v>
       </c>
-      <c r="B2" t="n">
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>Northern</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>MW1</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>Malawi</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>MW</t>
+        </is>
+      </c>
+      <c r="F2" s="2" t="n">
+        <v>45014</v>
+      </c>
+      <c r="G2" s="2" t="n">
+        <v>45021</v>
+      </c>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t>&lt;Null&gt;</t>
+        </is>
+      </c>
+      <c r="I2" t="n">
         <v>1</v>
       </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>Polygon</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>Central</t>
-        </is>
-      </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>MW2</t>
-        </is>
-      </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>&lt;Null&gt;</t>
-        </is>
-      </c>
-      <c r="G2" t="inlineStr">
-        <is>
-          <t>&lt;Null&gt;</t>
-        </is>
-      </c>
-      <c r="H2" t="inlineStr">
-        <is>
-          <t>&lt;Null&gt;</t>
-        </is>
-      </c>
-      <c r="I2" t="inlineStr">
-        <is>
-          <t>Malawi</t>
-        </is>
-      </c>
       <c r="J2" t="inlineStr">
         <is>
-          <t>MW</t>
-        </is>
-      </c>
-      <c r="K2" s="2" t="n">
-        <v>43346</v>
-      </c>
-      <c r="L2" s="2" t="n">
-        <v>43389</v>
+          <t>Northern</t>
+        </is>
+      </c>
+      <c r="K2" t="inlineStr">
+        <is>
+          <t>MW1</t>
+        </is>
+      </c>
+      <c r="L2" t="inlineStr">
+        <is>
+          <t>Malawi</t>
+        </is>
       </c>
       <c r="M2" t="inlineStr">
         <is>
-          <t>&lt;Null&gt;</t>
-        </is>
-      </c>
-      <c r="N2" t="n">
-        <v>13.81202</v>
-      </c>
-      <c r="O2" t="n">
-        <v>2.982917</v>
-      </c>
-      <c r="P2" t="n">
-        <v>1</v>
+          <t>MW</t>
+        </is>
+      </c>
+      <c r="N2" s="2" t="n">
+        <v>45014</v>
+      </c>
+      <c r="O2" s="2" t="n">
+        <v>45021</v>
       </c>
       <c r="Q2" t="n">
-        <v>35708.296875</v>
+        <v>1579717.40696455</v>
+      </c>
+      <c r="R2" t="n">
+        <v>27147309048.74201</v>
+      </c>
+      <c r="S2" t="n">
+        <v>27147.309048742</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
         <v>2</v>
       </c>
-      <c r="B3" t="n">
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>Central</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>MW2</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>Malawi</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>MW</t>
+        </is>
+      </c>
+      <c r="F3" s="2" t="n">
+        <v>45014</v>
+      </c>
+      <c r="G3" s="2" t="n">
+        <v>45021</v>
+      </c>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>&lt;Null&gt;</t>
+        </is>
+      </c>
+      <c r="I3" t="n">
         <v>2</v>
       </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>Polygon</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>Northern</t>
-        </is>
-      </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>MW1</t>
-        </is>
-      </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>&lt;Null&gt;</t>
-        </is>
-      </c>
-      <c r="G3" t="inlineStr">
-        <is>
-          <t>&lt;Null&gt;</t>
-        </is>
-      </c>
-      <c r="H3" t="inlineStr">
-        <is>
-          <t>&lt;Null&gt;</t>
-        </is>
-      </c>
-      <c r="I3" t="inlineStr">
-        <is>
-          <t>Malawi</t>
-        </is>
-      </c>
       <c r="J3" t="inlineStr">
         <is>
-          <t>MW</t>
-        </is>
-      </c>
-      <c r="K3" s="2" t="n">
-        <v>43346</v>
-      </c>
-      <c r="L3" s="2" t="n">
-        <v>43389</v>
+          <t>Central</t>
+        </is>
+      </c>
+      <c r="K3" t="inlineStr">
+        <is>
+          <t>MW2</t>
+        </is>
+      </c>
+      <c r="L3" t="inlineStr">
+        <is>
+          <t>Malawi</t>
+        </is>
       </c>
       <c r="M3" t="inlineStr">
         <is>
-          <t>&lt;Null&gt;</t>
-        </is>
-      </c>
-      <c r="N3" t="n">
-        <v>12.944779</v>
-      </c>
-      <c r="O3" t="n">
-        <v>2.245943</v>
-      </c>
-      <c r="P3" t="n">
-        <v>2</v>
+          <t>MW</t>
+        </is>
+      </c>
+      <c r="N3" s="2" t="n">
+        <v>45014</v>
+      </c>
+      <c r="O3" s="2" t="n">
+        <v>45021</v>
       </c>
       <c r="Q3" t="n">
-        <v>27139.1171875</v>
+        <v>1675299.419877436</v>
+      </c>
+      <c r="R3" t="n">
+        <v>35614315445.76481</v>
+      </c>
+      <c r="S3" t="n">
+        <v>35614.3154457648</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
         <v>3</v>
       </c>
-      <c r="B4" t="n">
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>Southern</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>MW3</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>Malawi</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>MW</t>
+        </is>
+      </c>
+      <c r="F4" s="2" t="n">
+        <v>45014</v>
+      </c>
+      <c r="G4" s="2" t="n">
+        <v>45021</v>
+      </c>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>&lt;Null&gt;</t>
+        </is>
+      </c>
+      <c r="I4" t="n">
         <v>3</v>
       </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>Polygon</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
+      <c r="J4" t="inlineStr">
         <is>
           <t>Southern</t>
         </is>
       </c>
-      <c r="E4" t="inlineStr">
+      <c r="K4" t="inlineStr">
         <is>
           <t>MW3</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>&lt;Null&gt;</t>
-        </is>
-      </c>
-      <c r="G4" t="inlineStr">
-        <is>
-          <t>&lt;Null&gt;</t>
-        </is>
-      </c>
-      <c r="H4" t="inlineStr">
-        <is>
-          <t>&lt;Null&gt;</t>
-        </is>
-      </c>
-      <c r="I4" t="inlineStr">
-        <is>
-          <t>Malawi</t>
-        </is>
-      </c>
-      <c r="J4" t="inlineStr">
-        <is>
-          <t>MW</t>
-        </is>
-      </c>
-      <c r="K4" s="2" t="n">
-        <v>43346</v>
-      </c>
-      <c r="L4" s="2" t="n">
-        <v>43389</v>
+      <c r="L4" t="inlineStr">
+        <is>
+          <t>Malawi</t>
+        </is>
       </c>
       <c r="M4" t="inlineStr">
         <is>
-          <t>&lt;Null&gt;</t>
-        </is>
-      </c>
-      <c r="N4" t="n">
-        <v>13.274535</v>
-      </c>
-      <c r="O4" t="n">
-        <v>2.772728</v>
-      </c>
-      <c r="P4" t="n">
-        <v>3</v>
+          <t>MW</t>
+        </is>
+      </c>
+      <c r="N4" s="2" t="n">
+        <v>45014</v>
+      </c>
+      <c r="O4" s="2" t="n">
+        <v>45021</v>
       </c>
       <c r="Q4" t="n">
-        <v>32930.2734375</v>
+        <v>2050192.593268566</v>
+      </c>
+      <c r="R4" t="n">
+        <v>30509726966.13509</v>
+      </c>
+      <c r="S4" t="n">
+        <v>30509.7269661351</v>
       </c>
     </row>
   </sheetData>
